--- a/MEv2.xlsx
+++ b/MEv2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aamaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="MEv1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Cuentas</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Tecnología</t>
   </si>
   <si>
-    <t>Lista por Pagar:</t>
-  </si>
-  <si>
     <t>Tarjetas</t>
   </si>
   <si>
@@ -168,14 +165,41 @@
   </si>
   <si>
     <t>Boleto de Barco</t>
+  </si>
+  <si>
+    <t>Medias</t>
+  </si>
+  <si>
+    <t>Por Hacer:</t>
+  </si>
+  <si>
+    <t>Arreglar pluma</t>
+  </si>
+  <si>
+    <t>Switch de cocina</t>
+  </si>
+  <si>
+    <t>Lista de Egresos:</t>
+  </si>
+  <si>
+    <t>Sacar Lentes</t>
+  </si>
+  <si>
+    <t>Desodorantes</t>
+  </si>
+  <si>
+    <t>Perfumes</t>
+  </si>
+  <si>
+    <t>Short</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -220,16 +244,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L39" sqref="A32:L39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +553,7 @@
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.7109375" customWidth="1"/>
@@ -557,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>829.37</v>
+        <v>818.37</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -583,7 +607,7 @@
       </c>
       <c r="C8" s="4">
         <f>SUM(C4:C7)</f>
-        <v>1957.1799999999998</v>
+        <v>1946.1799999999998</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -626,7 +650,7 @@
         <v>34</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -652,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -674,11 +698,14 @@
       <c r="P16" t="s">
         <v>28</v>
       </c>
+      <c r="R16" t="s">
+        <v>53</v>
+      </c>
       <c r="T16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>32</v>
       </c>
@@ -691,8 +718,11 @@
       <c r="P17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>33</v>
       </c>
@@ -706,7 +736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>19</v>
       </c>
@@ -717,49 +747,67 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
+    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
